--- a/cleandata.xlsx
+++ b/cleandata.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+  <si>
+    <t>activity_label</t>
+  </si>
   <si>
     <t>average of tBodyAcc-mean()-X</t>
   </si>
@@ -318,248 +321,250 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BR1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BS1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BT1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BU1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BV1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BW1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BX1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BY1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BZ1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CA1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="CB1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" t="n">
         <v>0.27633687532520324</v>
@@ -801,7 +806,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="n">
         <v>0.2622946494834197</v>
@@ -1043,7 +1048,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" t="n">
         <v>0.2881372277603129</v>
@@ -1285,7 +1290,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" t="n">
         <v>0.27305961441896454</v>
@@ -1527,7 +1532,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" t="n">
         <v>0.27915349405036727</v>
@@ -1769,7 +1774,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="n">
         <v>0.2686486432962449</v>
